--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447644.8147288872</v>
+        <v>445757.233212485</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444624.8961681128</v>
+        <v>256840.3899896857</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>97.31207013050886</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>181.8921573515706</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.6788446020113</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>262.5770567221875</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.120666783481306</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>365.3781187357834</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.76486346740683</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>216.6993815150877</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>57.29842298468323</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>202.0334357037689</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>160.103673200676</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>62.70305798262098</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>73.21532344290732</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>12.42543565678827</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4580224597092</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>73.50096938092078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>8.673753185735201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>75.429077081991</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>160.1249140494196</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.48755732533346</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.520986584798</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>27.26009267756199</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>65.54747322920272</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.5661105794524</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>44.94523016605579</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>55.21598883571503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857192</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.7819382378952</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.2873553346313</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2598.854070684375</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2598.854070684375</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2345.092285322467</v>
+        <v>2063.578794964675</v>
       </c>
       <c r="V2" t="n">
-        <v>2345.092285322467</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.092285322467</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.092285322467</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.952953346655</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>65.7397945496688</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5914466506042</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>65.7397945496688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>941.6889639850503</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>583.4232653782999</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>583.4232653782999</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>576.4777646290964</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.80648027229054</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>63.80648027229054</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>63.80648027229054</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>63.80648027229054</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1191.835263233623</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4796,13 +4796,13 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2639.271896084199</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2639.271896084199</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2639.271896084199</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.209008740628</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.440353470514</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1581.974595209434</v>
+        <v>1965.649771680316</v>
       </c>
       <c r="Y8" t="n">
-        <v>1191.835263233623</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6911546495019</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1095.548343721096</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N12" t="n">
-        <v>1899.959921985247</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.713336069209</v>
+        <v>1921.513228801934</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2441.813850537681</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5230,19 +5230,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.504806801367</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1151.504806801367</v>
+        <v>909.3712637033468</v>
       </c>
       <c r="W13" t="n">
-        <v>862.0876367644059</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X13" t="n">
-        <v>634.0980858663885</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.3055067228584</v>
+        <v>171.1719636248387</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="M15" t="n">
-        <v>1570.408513028025</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N15" t="n">
-        <v>2374.820091292176</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.4504516500519</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500519</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500519</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.4504516500519</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>419.7848952835978</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>649.7480011519469</v>
       </c>
       <c r="M18" t="n">
-        <v>1387.765035414674</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N18" t="n">
-        <v>2192.176613678825</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033468</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>619.9540936663861</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>611.1927268121082</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>390.400147668578</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5377573864724</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1220.905903778934</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.071707946799</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.0436439308535</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
         <v>1283.483062980063</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1226.098829696071</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V22" t="n">
-        <v>1226.098829696071</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="W22" t="n">
-        <v>936.6816596591106</v>
+        <v>720.4504516500517</v>
       </c>
       <c r="X22" t="n">
-        <v>708.6921087610932</v>
+        <v>492.4609007520344</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.6921087610932</v>
+        <v>492.4609007520344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>327.180197328635</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>897.6601296826478</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150551</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>954.8146123150551</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.022033171525</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,28 +6215,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>492.0526901565856</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171746</v>
+        <v>722.0157960249347</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>1490.383942417396</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.893885873787</v>
+        <v>2294.795520681547</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>124.7525386093384</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.001276344574</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V28" t="n">
-        <v>754.3167881386869</v>
+        <v>755.1831334811255</v>
       </c>
       <c r="W28" t="n">
-        <v>464.8996181017263</v>
+        <v>755.1831334811255</v>
       </c>
       <c r="X28" t="n">
-        <v>464.8996181017263</v>
+        <v>527.1935825831082</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>306.4010034395781</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,7 +6485,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
@@ -6494,7 +6494,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>661.3152587829629</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>448.686584473338</v>
+        <v>494.8466681110215</v>
       </c>
       <c r="C31" t="n">
-        <v>448.686584473338</v>
+        <v>381.6713504644853</v>
       </c>
       <c r="D31" t="n">
-        <v>448.686584473338</v>
+        <v>381.6713504644853</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>289.5191221634628</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>198.3900399469231</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>198.3900399469231</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>957.9946671386966</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>785.76598152205</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030878</v>
+        <v>620.7342676598905</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6780,25 +6780,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527475</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>2310.85019082976</v>
       </c>
       <c r="O33" t="n">
-        <v>2339.460577419557</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>970.0833206816483</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7108,13 +7108,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,16 +7187,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>836.471721275012</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1423.179110240431</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,25 +7412,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5382936126482</v>
+        <v>578.5528938194191</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7546,16 +7546,16 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>150.2122990848757</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849284</v>
+        <v>353.0203989689784</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>193.1571195175732</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.7114843400969</v>
       </c>
       <c r="M42" t="n">
-        <v>202.8611258896129</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>106.61665673903</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>273.8119167417891</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>11.78879863891859</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>217.035902203302</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>104.4029030999463</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>126.1124383491577</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.3444228566038</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>52.3998233988053</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>139.9867284210658</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>220.6898791693746</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.062612973927827</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>48.7653415729234</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1098419.77083223</v>
+        <v>1098419.770832229</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="F2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901672</v>
       </c>
       <c r="G2" t="n">
         <v>312823.2477901671</v>
@@ -26332,7 +26332,7 @@
         <v>312823.247790167</v>
       </c>
       <c r="I2" t="n">
-        <v>312823.2477901671</v>
+        <v>312823.247790167</v>
       </c>
       <c r="J2" t="n">
         <v>312823.2477901672</v>
@@ -26341,19 +26341,19 @@
         <v>325457.7098762159</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457137</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457139</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457139</v>
+        <v>328416.707945714</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457137</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457138</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086698</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758773</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758784</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758436</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477227</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189637</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-483469.3885128597</v>
+        <v>-483469.3885128599</v>
       </c>
       <c r="C6" t="n">
         <v>106498.4907016847</v>
       </c>
       <c r="D6" t="n">
-        <v>106498.4907016846</v>
+        <v>106498.4907016848</v>
       </c>
       <c r="E6" t="n">
-        <v>-305111.9083260215</v>
+        <v>-305209.3674519938</v>
       </c>
       <c r="F6" t="n">
-        <v>220048.1281508746</v>
+        <v>219950.6690249025</v>
       </c>
       <c r="G6" t="n">
-        <v>220048.1281508746</v>
+        <v>219950.6690249025</v>
       </c>
       <c r="H6" t="n">
-        <v>220048.1281508745</v>
+        <v>219950.6690249023</v>
       </c>
       <c r="I6" t="n">
-        <v>220048.1281508746</v>
+        <v>219950.6690249024</v>
       </c>
       <c r="J6" t="n">
-        <v>43624.90895828168</v>
+        <v>43527.44983230955</v>
       </c>
       <c r="K6" t="n">
-        <v>165714.479838375</v>
+        <v>165695.9861004406</v>
       </c>
       <c r="L6" t="n">
         <v>197152.114392925</v>
       </c>
       <c r="M6" t="n">
-        <v>72694.00595995506</v>
+        <v>72694.00595995458</v>
       </c>
       <c r="N6" t="n">
-        <v>207495.0211937922</v>
+        <v>207495.0211937923</v>
       </c>
       <c r="O6" t="n">
-        <v>207495.0211937919</v>
+        <v>207495.021193792</v>
       </c>
       <c r="P6" t="n">
-        <v>163332.4158909462</v>
+        <v>163332.4158909466</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108373</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>77.10364267846268</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>69.3320101567187</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>155.5679764966165</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>23.70481751979025</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>375.6131748799993</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>48.40605128501159</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>135.6561845555244</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>117.1172898242883</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>167.6976649747001</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>64.93143225740823</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>223.81994035397</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993417</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31601,13 +31601,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>225.0728617982313</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>113.500097298109</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,16 +32014,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>294.7784893866582</v>
       </c>
       <c r="M15" t="n">
-        <v>349.173257750317</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>199.2022664297722</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>359.9147016846446</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="N21" t="n">
-        <v>138.0254025558048</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,19 +32786,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>252.6713260851627</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32810,13 +32810,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33026,19 +33026,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>272.2000390287498</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33047,13 +33047,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33272,16 +33272,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,34 +33494,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,34 +33731,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>325.8260644679914</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33968,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>244.6330639674761</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,40 +34360,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,34 +34442,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>275.464892166903</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>409.5612230238382</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>183.5956109479366</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>527.0644549102432</v>
       </c>
       <c r="M15" t="n">
-        <v>672.7442875782986</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>325.8260644679918</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>683.4857315126262</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>470.8978973057062</v>
       </c>
       <c r="N21" t="n">
-        <v>486.026064816025</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>576.2423559131443</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>18.87058700154243</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36458,7 +36458,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>398.8238370669694</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629101</v>
+        <v>210.8863650469601</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>50.56087507312882</v>
       </c>
       <c r="P33" t="n">
-        <v>286.9827555116977</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>649.397094295973</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>592.6337262276963</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.15710456022271</v>
       </c>
       <c r="M42" t="n">
-        <v>60.72709196759461</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502436</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>623.4655544271233</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
